--- a/output/Tables/Log linear/HIA_10000steps.xlsx
+++ b/output/Tables/Log linear/HIA_10000steps.xlsx
@@ -1,114 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10119"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ines/Documents/M2/ENS/Stage/Walking benefits/codes/walking/output/Tables/Log linear/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAB33CCA-AD81-C244-B900-696C2EFA5344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="23020" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
-  <si>
-    <t>disease</t>
-  </si>
-  <si>
-    <t>tot_cases</t>
-  </si>
-  <si>
-    <t>tot_cases_se</t>
-  </si>
-  <si>
-    <t>low_cases</t>
-  </si>
-  <si>
-    <t>sup_cases</t>
-  </si>
-  <si>
-    <t>tot_daly</t>
-  </si>
-  <si>
-    <t>tot_daly_se</t>
-  </si>
-  <si>
-    <t>low_daly</t>
-  </si>
-  <si>
-    <t>sup_daly</t>
-  </si>
-  <si>
-    <t>tot_medic_costs</t>
-  </si>
-  <si>
-    <t>tot_medic_costs_se</t>
-  </si>
-  <si>
-    <t>low_medic_costs</t>
-  </si>
-  <si>
-    <t>sup_medic_costs</t>
-  </si>
-  <si>
-    <t>tot_soc_costs</t>
-  </si>
-  <si>
-    <t>low_soc_costs</t>
-  </si>
-  <si>
-    <t>sup_soc_costs</t>
-  </si>
-  <si>
-    <t>Colon cancer</t>
-  </si>
-  <si>
-    <t>Dementia</t>
-  </si>
-  <si>
-    <t>Breast cancer</t>
-  </si>
-  <si>
-    <t>CVD</t>
-  </si>
-  <si>
-    <t>T2 Diabetes</t>
-  </si>
-  <si>
-    <t>Mortality</t>
-  </si>
-  <si>
-    <t>Morbidity</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,21 +63,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -208,7 +107,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -242,7 +141,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -277,10 +175,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -453,77 +350,100 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="12.1640625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>disease</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>tot_cases</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>tot_cases_se</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>low_cases</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>sup_cases</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>tot_daly</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>tot_daly_se</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>low_daly</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>sup_daly</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>tot_medic_costs</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>tot_medic_costs_se</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>low_medic_costs</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>sup_medic_costs</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>tot_soc_costs</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>low_soc_costs</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>sup_soc_costs</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>16</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Colon cancer</t>
+        </is>
       </c>
       <c r="B2">
         <v>11135.34502979701</v>
@@ -532,48 +452,50 @@
         <v>1005.538011644506</v>
       </c>
       <c r="D2">
-        <v>199.3189221957501</v>
+        <v>2106.098716768451</v>
       </c>
       <c r="E2">
-        <v>1767.830263916951</v>
+        <v>19613.33929827069</v>
       </c>
       <c r="F2">
-        <v>12366.267022959981</v>
+        <v>12366.26702295998</v>
       </c>
       <c r="G2">
         <v>1080.644507907773</v>
       </c>
       <c r="H2">
-        <v>168.55948885999629</v>
+        <v>1865.598325731785</v>
       </c>
       <c r="I2">
-        <v>2196.5820832758341</v>
+        <v>25159.43707993169</v>
       </c>
       <c r="J2">
-        <v>297491877.81605577</v>
+        <v>297491877.8160558</v>
       </c>
       <c r="K2">
-        <v>26863953.519094631</v>
+        <v>26863953.51909463</v>
       </c>
       <c r="L2">
-        <v>5325004.3253816599</v>
+        <v>56266533.31718592</v>
       </c>
       <c r="M2">
-        <v>47229353.330805257</v>
+        <v>523989972.692598</v>
       </c>
       <c r="N2">
         <v>1644713514.053678</v>
       </c>
       <c r="O2">
-        <v>22418412.018379509</v>
+        <v>248124577.3223274</v>
       </c>
       <c r="P2">
-        <v>292145417.07568592</v>
+        <v>3346205131.630914</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>17</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Dementia</t>
+        </is>
       </c>
       <c r="B3">
         <v>18104.81413521041</v>
@@ -582,48 +504,50 @@
         <v>1733.765796356292</v>
       </c>
       <c r="D3">
-        <v>924.63658786500946</v>
+        <v>9655.498799833864</v>
       </c>
       <c r="E3">
-        <v>2641.818822471455</v>
+        <v>27587.13942809674</v>
       </c>
       <c r="F3">
         <v>14348.93999175142</v>
       </c>
       <c r="G3">
-        <v>1409.3706466972351</v>
+        <v>1409.370646697235</v>
       </c>
       <c r="H3">
-        <v>618.7935543561149</v>
+        <v>6299.99751984748</v>
       </c>
       <c r="I3">
-        <v>2486.484723444923</v>
+        <v>25315.14344415212</v>
       </c>
       <c r="J3">
-        <v>411848311.94776767</v>
+        <v>411848311.9477677</v>
       </c>
       <c r="K3">
-        <v>39439704.335512944</v>
+        <v>39439704.33551294</v>
       </c>
       <c r="L3">
-        <v>21033633.100753229</v>
+        <v>219643286.6986201</v>
       </c>
       <c r="M3">
-        <v>60096094.573580667</v>
+        <v>627552247.710345</v>
       </c>
       <c r="N3">
-        <v>1908409018.9029391</v>
+        <v>1908409018.902939</v>
       </c>
       <c r="O3">
-        <v>82299542.729363278</v>
+        <v>837899670.1397148</v>
       </c>
       <c r="P3">
-        <v>330702468.21817482</v>
+        <v>3366914078.072232</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>18</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Breast cancer</t>
+        </is>
       </c>
       <c r="B4">
         <v>30007.99447664274</v>
@@ -632,172 +556,178 @@
         <v>3667.47786358858</v>
       </c>
       <c r="D4">
-        <v>2496.523775176217</v>
+        <v>20427.0276311882</v>
       </c>
       <c r="E4">
-        <v>6657.3967338032344</v>
+        <v>54472.07368316857</v>
       </c>
       <c r="F4">
-        <v>47901.082770136141</v>
+        <v>47901.08277013614</v>
       </c>
       <c r="G4">
-        <v>5858.1025099999697</v>
+        <v>5858.10250999997</v>
       </c>
       <c r="H4">
-        <v>3047.228761725537</v>
+        <v>24916.86632075588</v>
       </c>
       <c r="I4">
-        <v>13164.360982312881</v>
+        <v>107643.5832171397</v>
       </c>
       <c r="J4">
         <v>1409415484.578958</v>
       </c>
       <c r="K4">
-        <v>172254100.29702851</v>
+        <v>172254100.2970285</v>
       </c>
       <c r="L4">
-        <v>117256728.6724765</v>
+        <v>959416633.7816521</v>
       </c>
       <c r="M4">
-        <v>312684609.79327029</v>
+        <v>2558444356.751066</v>
       </c>
       <c r="N4">
-        <v>6370844008.4281073</v>
+        <v>6370844008.428107</v>
       </c>
       <c r="O4">
-        <v>405281425.30949628</v>
+        <v>3313943220.660532</v>
       </c>
       <c r="P4">
-        <v>1750860010.647613</v>
+        <v>14316596567.87958</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>19</v>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>CVD</t>
+        </is>
       </c>
       <c r="B5">
         <v>110855.7035260196</v>
       </c>
       <c r="C5">
-        <v>9868.0590451672033</v>
+        <v>9868.059045167203</v>
       </c>
       <c r="D5">
-        <v>7793.7855146805532</v>
+        <v>87553.7501758205</v>
       </c>
       <c r="E5">
-        <v>16366.94958082917</v>
+        <v>183862.8753692234</v>
       </c>
       <c r="F5">
-        <v>80184.442080714522</v>
+        <v>80184.44208071452</v>
       </c>
       <c r="G5">
-        <v>7122.0670477684853</v>
+        <v>7122.067047768485</v>
       </c>
       <c r="H5">
-        <v>4300.1347465577064</v>
+        <v>48413.45963355646</v>
       </c>
       <c r="I5">
-        <v>14489.536449135139</v>
+        <v>163131.7689639146</v>
       </c>
       <c r="J5">
         <v>2321096720.427804</v>
       </c>
       <c r="K5">
-        <v>206617420.28771099</v>
+        <v>206617420.287711</v>
       </c>
       <c r="L5">
-        <v>163186281.10638139</v>
+        <v>1833200421.181325</v>
       </c>
       <c r="M5">
-        <v>342691190.32340097</v>
+        <v>3849720884.480789</v>
       </c>
       <c r="N5">
-        <v>10664530796.735029</v>
+        <v>10664530796.73503</v>
       </c>
       <c r="O5">
-        <v>571917921.29217482</v>
+        <v>6438990131.263009</v>
       </c>
       <c r="P5">
-        <v>1927108347.734973</v>
+        <v>21696525272.20064</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>20</v>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>T2 Diabetes</t>
+        </is>
       </c>
       <c r="B6">
-        <v>133305.26541592219</v>
+        <v>133305.2654159222</v>
       </c>
       <c r="C6">
         <v>11600.72795266584</v>
       </c>
       <c r="D6">
-        <v>8402.1209264425888</v>
+        <v>96549.71349437801</v>
       </c>
       <c r="E6">
-        <v>23339.224795673861</v>
+        <v>268193.6485954953</v>
       </c>
       <c r="F6">
-        <v>191902.76847287951</v>
+        <v>191902.7684728795</v>
       </c>
       <c r="G6">
-        <v>16828.382854694111</v>
+        <v>16828.38285469411</v>
       </c>
       <c r="H6">
-        <v>9026.7362503588174</v>
+        <v>102936.5502125566</v>
       </c>
       <c r="I6">
-        <v>42447.068759639253</v>
+        <v>484045.9168815049</v>
       </c>
       <c r="J6">
-        <v>4867508461.3970222</v>
+        <v>4867508461.397022</v>
       </c>
       <c r="K6">
-        <v>423588980.46364057</v>
+        <v>423588980.4636406</v>
       </c>
       <c r="L6">
-        <v>306795043.50812459</v>
+        <v>3525416238.533728</v>
       </c>
       <c r="M6">
-        <v>852208454.18923569</v>
+        <v>9792822884.815874</v>
       </c>
       <c r="N6">
-        <v>25523068206.892971</v>
+        <v>25523068206.89297</v>
       </c>
       <c r="O6">
-        <v>1200555921.2977231</v>
+        <v>13690561178.27002</v>
       </c>
       <c r="P6">
-        <v>5645460145.0320196</v>
+        <v>64378106945.24016</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>21</v>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Mortality</t>
+        </is>
       </c>
       <c r="B7">
-        <v>151236.974530721</v>
+        <v>151236.9745307214</v>
       </c>
       <c r="C7">
         <v>13687.48225546805</v>
       </c>
       <c r="D7">
-        <v>5930.77021462011</v>
+        <v>65530.8059696471</v>
       </c>
       <c r="E7">
-        <v>19571.541708246401</v>
+        <v>216251.6596998349</v>
       </c>
       <c r="F7">
-        <v>1482151.0412725511</v>
+        <v>1482151.041272551</v>
       </c>
       <c r="G7">
-        <v>131223.57391325431</v>
+        <v>131223.5739132543</v>
       </c>
       <c r="H7">
-        <v>56859.022652600841</v>
+        <v>642214.3302239371</v>
       </c>
       <c r="I7">
-        <v>187634.77475358249</v>
+        <v>2119307.289738989</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -815,27 +745,10 @@
         <v>197126088489.2493</v>
       </c>
       <c r="O7">
-        <v>7562250012.7959118</v>
+        <v>85414505919.78363</v>
       </c>
       <c r="P7">
-        <v>24955425042.226479</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9">
-        <f>SUM(B2:B6)</f>
-        <v>303409.12258359196</v>
-      </c>
-      <c r="D9">
-        <f t="shared" ref="C9:E9" si="0">SUM(D2:D6)</f>
-        <v>19816.385726360117</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="0"/>
-        <v>50773.220196694674</v>
+        <v>281867869535.2855</v>
       </c>
     </row>
   </sheetData>
